--- a/data_impute_project/removed_data/human/combination_5_ABCDH/D/20/seed5/missing_data.xlsx
+++ b/data_impute_project/removed_data/human/combination_5_ABCDH/D/20/seed5/missing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,333 +468,331 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H 72</t>
+          <t>H 1968 Sk 4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-20.1</v>
+        <v>-20</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.5</v>
+        <v>-14.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>-6.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7098100000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>H 1968 Sk 4</t>
+          <t>H 12640 K XIII/3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20</v>
+        <v>-19.8</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11.7</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.8</v>
+        <v>-13.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7098100000000001</v>
+        <v>0.70917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>H 12640 K XIII/3</t>
+          <t>RM 2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7</v>
+        <v>14.9</v>
       </c>
       <c r="D4" t="n">
         <v>-13.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.5</v>
+        <v>-7.2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.70917</v>
+        <v>0.70909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RM 2</t>
+          <t>RM 8</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>-19.7</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9</v>
+        <v>11.2</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.5</v>
+        <v>-14.2</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.2</v>
+        <v>-5.7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.70909</v>
+        <v>0.71055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RM 8</t>
+          <t>RM 9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.7</v>
+        <v>-18.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>-14.2</v>
+        <v>-15.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.7</v>
+        <v>-6.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.71055</v>
+        <v>0.71067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RM 9</t>
+          <t>RM 14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.7</v>
+        <v>-19.5</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>12.3</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.4</v>
+        <v>-14.4</v>
       </c>
       <c r="E7" t="n">
-        <v>-6.4</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.71067</v>
+        <v>0.71266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RM 14</t>
+          <t>RM 21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-19.5</v>
+        <v>-19.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12.3</v>
+        <v>15.1</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.4</v>
+        <v>-14.2</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>-5.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.71266</v>
+        <v>0.7099299999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RM 21</t>
+          <t>RM 28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.8</v>
+        <v>-19.9</v>
       </c>
       <c r="C9" t="n">
-        <v>15.1</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>-14.2</v>
+        <v>-15.4</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.7</v>
+        <v>-6.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7099299999999999</v>
+        <v>0.71194</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RM 28</t>
+          <t>RM 32</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-19.9</v>
+        <v>-19.5</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.4</v>
+        <v>-13.8</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.2</v>
+        <v>-7.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.71194</v>
+        <v>0.7105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RM 32</t>
+          <t>RM 38</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.5</v>
+        <v>-19.9</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="D11" t="n">
-        <v>-13.8</v>
+        <v>-13.9</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0.7105</v>
+        <v>0.71122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RM 38</t>
+          <t>RM 42</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.9</v>
+        <v>-20.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-13.9</v>
+        <v>-14.5</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0.71122</v>
+        <v>0.71118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RM 42</t>
+          <t>RM 52 a</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.6</v>
+        <v>-19.8</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-14.5</v>
+        <v>-14.7</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.8</v>
+        <v>-6.1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.71118</v>
+        <v>0.7110300000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RM 52 a</t>
+          <t>RM 58</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-19.8</v>
+        <v>-20.8</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D14" t="n">
-        <v>-14.7</v>
+        <v>-15.5</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1</v>
+        <v>-7.9</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7110300000000001</v>
+        <v>0.70989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RM 58</t>
+          <t>RM 78</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-20.8</v>
+        <v>-18.9</v>
       </c>
       <c r="C15" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>-15.5</v>
+        <v>-15.4</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0.70989</v>
+        <v>0.70964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RM 78</t>
+          <t>RM 81</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.9</v>
+        <v>-19.9</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.4</v>
+        <v>-14.1</v>
       </c>
       <c r="E16" t="n">
-        <v>-12</v>
+        <v>-5.3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.70964</v>
+        <v>0.70956</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RM 81</t>
+          <t>RM 88</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -804,398 +802,398 @@
         <v>12.5</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.1</v>
+        <v>-13.9</v>
       </c>
       <c r="E17" t="n">
         <v>-5.3</v>
       </c>
       <c r="F17" t="n">
-        <v>0.70956</v>
+        <v>0.71011</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RM 88</t>
+          <t>RM 90</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-19.9</v>
+        <v>-19.6</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5</v>
+        <v>14.4</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.9</v>
+        <v>-13.1</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.71011</v>
+        <v>0.71073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RM 90</t>
+          <t>RM 95</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19.6</v>
+        <v>-19.1</v>
       </c>
       <c r="C19" t="n">
-        <v>14.4</v>
+        <v>12.5</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.1</v>
+        <v>-15.2</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.4</v>
+        <v>-8.4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.71073</v>
+        <v>0.7107599999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RM 95</t>
+          <t>RM 103</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-19.1</v>
+        <v>-19.5</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="D20" t="n">
-        <v>-15.2</v>
+        <v>-15.3</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.4</v>
+        <v>-6.9</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7107599999999999</v>
+        <v>0.7106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RM 103</t>
+          <t>RM 116</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-19.5</v>
+        <v>-19.4</v>
       </c>
       <c r="C21" t="n">
-        <v>13.5</v>
+        <v>11.2</v>
       </c>
       <c r="D21" t="n">
-        <v>-15.3</v>
+        <v>-14.7</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.9</v>
+        <v>-7.3</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7106</v>
+        <v>0.7098100000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RM 116</t>
+          <t>RM 120</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-19.4</v>
+        <v>-19.6</v>
       </c>
       <c r="C22" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-14.7</v>
+        <v>-15.2</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.3</v>
+        <v>-8.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7098100000000001</v>
+        <v>0.70941</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RM 120</t>
+          <t>RM 125</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-19.6</v>
+        <v>-20.6</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.2</v>
+        <v>-15.5</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.5</v>
+        <v>-6.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.70941</v>
+        <v>0.70931</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RM 125</t>
+          <t>RM 134</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-20.6</v>
+        <v>-19</v>
       </c>
       <c r="C24" t="n">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="D24" t="n">
-        <v>-15.5</v>
+        <v>-14</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.5</v>
+        <v>-7.2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.70931</v>
+        <v>0.7101499999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RM 134</t>
+          <t>RM 135</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-19</v>
+        <v>-18.9</v>
       </c>
       <c r="C25" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D25" t="n">
-        <v>-14</v>
+        <v>-14.3</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.2</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7101499999999999</v>
+        <v>0.7108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RM 135</t>
+          <t>RM 137</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-18.9</v>
+        <v>-19.5</v>
       </c>
       <c r="C26" t="n">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>-14.3</v>
+        <v>-14.9</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7108</v>
+        <v>0.70925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RM 137</t>
+          <t>RM 138</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-19.5</v>
+        <v>-19.3</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="D27" t="n">
-        <v>-14.9</v>
+        <v>-15.4</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.70925</v>
+        <v>0.7092000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RM 138</t>
+          <t>RM 140</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-19.3</v>
+        <v>-19.5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.5</v>
+        <v>12.2</v>
       </c>
       <c r="D28" t="n">
-        <v>-15.4</v>
+        <v>-13.9</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.7092000000000001</v>
+        <v>0.70963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RM 140</t>
+          <t>RM 142a</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-19.5</v>
+        <v>-17.7</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="D29" t="n">
         <v>-13.9</v>
       </c>
       <c r="E29" t="n">
-        <v>-7</v>
+        <v>-8.1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.70963</v>
+        <v>0.7094200000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RM 142a</t>
+          <t>RM 142b</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-17.7</v>
+        <v>-19.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12.7</v>
+        <v>12.2</v>
       </c>
       <c r="D30" t="n">
-        <v>-13.9</v>
+        <v>-13.8</v>
       </c>
       <c r="E30" t="n">
-        <v>-8.1</v>
+        <v>-7.4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7094200000000001</v>
+        <v>0.71055</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RM 142b</t>
+          <t>RM 145</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>-19.5</v>
       </c>
       <c r="C31" t="n">
-        <v>12.2</v>
+        <v>10.7</v>
       </c>
       <c r="D31" t="n">
-        <v>-13.8</v>
+        <v>-15.5</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.71055</v>
+        <v>0.7116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RM 145</t>
+          <t>RM 146</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19.5</v>
+        <v>-19.4</v>
       </c>
       <c r="C32" t="n">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
       <c r="D32" t="n">
-        <v>-15.5</v>
+        <v>-15.2</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>0.7116</v>
+        <v>0.71028</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RM 146</t>
+          <t>RM 156</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>-19.4</v>
       </c>
       <c r="C33" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>-15.2</v>
+        <v>-15.1</v>
       </c>
       <c r="E33" t="n">
-        <v>-7.8</v>
+        <v>-9.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.71028</v>
+        <v>0.72961</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RM 156</t>
+          <t>RM 158</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-19.4</v>
+        <v>-19.6</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>10.3</v>
       </c>
       <c r="D34" t="n">
-        <v>-15.1</v>
+        <v>-14</v>
       </c>
       <c r="E34" t="n">
-        <v>-9.5</v>
+        <v>-7.6</v>
       </c>
       <c r="F34" t="n">
-        <v>0.72961</v>
+        <v>0.70933</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RM 158</t>
+          <t>RM 159</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-19.6</v>
+        <v>-19.2</v>
       </c>
       <c r="C35" t="n">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="D35" t="n">
-        <v>-14</v>
+        <v>-14.4</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.6</v>
+        <v>-7.4</v>
       </c>
       <c r="F35" t="n">
         <v>0.70933</v>
@@ -1204,148 +1202,148 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RM 159</t>
+          <t>RM 165</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-19.2</v>
+        <v>-19.1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.3</v>
+        <v>14.3</v>
       </c>
       <c r="D36" t="n">
-        <v>-14.4</v>
+        <v>-14.6</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>0.70933</v>
+        <v>0.71087</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RM 165</t>
+          <t>RM 167</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-19.1</v>
+        <v>-19.8</v>
       </c>
       <c r="C37" t="n">
-        <v>14.3</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>-14.6</v>
+        <v>-14.3</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.6</v>
+        <v>-7.1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.71087</v>
+        <v>0.71078</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RM 167</t>
+          <t>RM 170</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-19.8</v>
+        <v>-19.2</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>11.5</v>
       </c>
       <c r="D38" t="n">
-        <v>-14.3</v>
+        <v>-14.7</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.71078</v>
+        <v>0.70956</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RM 170</t>
+          <t>RM 173</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-19.2</v>
+        <v>-19.8</v>
       </c>
       <c r="C39" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D39" t="n">
         <v>-14.7</v>
       </c>
       <c r="E39" t="n">
-        <v>-9.199999999999999</v>
+        <v>-7.7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.70956</v>
+        <v>0.70929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RM 173</t>
+          <t>RM 178</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-19.8</v>
+        <v>-19.5</v>
       </c>
       <c r="C40" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D40" t="n">
-        <v>-14.7</v>
+        <v>-14.4</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
       <c r="F40" t="n">
-        <v>0.70929</v>
+        <v>0.71102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RM 178</t>
+          <t>RM 186</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-19.5</v>
+        <v>-18.1</v>
       </c>
       <c r="C41" t="n">
-        <v>11.9</v>
+        <v>13.9</v>
       </c>
       <c r="D41" t="n">
-        <v>-14.4</v>
+        <v>-15.9</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.9</v>
+        <v>-10.2</v>
       </c>
       <c r="F41" t="n">
-        <v>0.71102</v>
+        <v>0.7111499999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RM 186</t>
+          <t>RM 193</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-18.1</v>
+        <v>-19</v>
       </c>
       <c r="C42" t="n">
-        <v>13.9</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>-15.9</v>
+        <v>-14.6</v>
       </c>
       <c r="E42" t="n">
-        <v>-10.2</v>
+        <v>-6.8</v>
       </c>
       <c r="F42" t="n">
         <v>0.7111499999999999</v>
@@ -1354,77 +1352,77 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RM 193</t>
+          <t>RM 197</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-19</v>
+        <v>-18.9</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="n">
-        <v>-14.6</v>
+        <v>-14.1</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.8</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7111499999999999</v>
+        <v>0.71152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RM 197</t>
+          <t>RM 202</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-18.9</v>
+        <v>-18.8</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="D44" t="n">
-        <v>-14.1</v>
+        <v>-15.3</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="F44" t="n">
-        <v>0.71152</v>
+        <v>0.7385699999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RM 202</t>
+          <t>RM 207</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-18.8</v>
+        <v>-19.7</v>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="D45" t="n">
-        <v>-15.3</v>
+        <v>-14.9</v>
       </c>
       <c r="E45" t="n">
-        <v>-8.9</v>
+        <v>-7.4</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7385699999999999</v>
+        <v>0.70941</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RM 207</t>
+          <t>RM 208</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-19.7</v>
+        <v>-19.5</v>
       </c>
       <c r="C46" t="n">
         <v>11.7</v>
@@ -1434,374 +1432,352 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>0.70941</v>
+        <v>0.71128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RM 208</t>
+          <t>RM 215</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-19.5</v>
+        <v>-19.8</v>
       </c>
       <c r="C47" t="n">
-        <v>11.7</v>
+        <v>12.9</v>
       </c>
       <c r="D47" t="n">
-        <v>-14.9</v>
+        <v>-14.6</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.3</v>
+        <v>-6.6</v>
       </c>
       <c r="F47" t="n">
-        <v>0.71128</v>
+        <v>0.71117</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RM 215</t>
+          <t>RM 219</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-19.8</v>
+        <v>-19.3</v>
       </c>
       <c r="C48" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D48" t="n">
-        <v>-14.6</v>
+        <v>-12.8</v>
       </c>
       <c r="E48" t="n">
-        <v>-6.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.71117</v>
+        <v>0.71045</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RM 219</t>
+          <t>RM 221</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-19.3</v>
+        <v>-19.9</v>
       </c>
       <c r="C49" t="n">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="D49" t="n">
-        <v>-12.8</v>
+        <v>-13.7</v>
       </c>
       <c r="E49" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
       <c r="F49" t="n">
-        <v>0.71045</v>
+        <v>0.70924</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RM 221</t>
+          <t>RM 232</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-19.9</v>
+        <v>-19.7</v>
       </c>
       <c r="C50" t="n">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
       <c r="D50" t="n">
-        <v>-13.7</v>
+        <v>-15.6</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.70924</v>
+        <v>0.71064</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RM 232</t>
+          <t>RM 233</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-19.7</v>
+        <v>-20.5</v>
       </c>
       <c r="C51" t="n">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="D51" t="n">
-        <v>-15.6</v>
+        <v>-14.5</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.800000000000001</v>
+        <v>-7.7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.71064</v>
+        <v>0.7107599999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RM 233</t>
+          <t>SC 5</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-20.5</v>
+        <v>-20.2</v>
       </c>
       <c r="C52" t="n">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="D52" t="n">
-        <v>-14.5</v>
+        <v>-13.8</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.7</v>
+        <v>-5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7107599999999999</v>
+        <v>0.70948</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SC 5</t>
+          <t>SC 66</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-20.2</v>
+        <v>-20.3</v>
       </c>
       <c r="C53" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="D53" t="n">
-        <v>-13.8</v>
+        <v>-12.9</v>
       </c>
       <c r="E53" t="n">
-        <v>-5</v>
+        <v>-5.7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.70948</v>
+        <v>0.71211</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SC 66</t>
+          <t>SC 92</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-20.3</v>
+        <v>-17.2</v>
       </c>
       <c r="C54" t="n">
-        <v>10.5</v>
+        <v>14.3</v>
       </c>
       <c r="D54" t="n">
-        <v>-12.9</v>
+        <v>-14</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>0.71211</v>
+        <v>0.71157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SC 92</t>
+          <t>SC 101</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-17.2</v>
+        <v>-20.4</v>
       </c>
       <c r="C55" t="n">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>-14</v>
+        <v>-14.6</v>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>0.71157</v>
+        <v>0.71492</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SC 101</t>
+          <t>SC 103</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-20.4</v>
+        <v>-19.2</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>11.9</v>
       </c>
       <c r="D56" t="n">
-        <v>-14.6</v>
+        <v>-14.7</v>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0.71492</v>
+        <v>0.7108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SC 103</t>
+          <t>SC 105</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-19.2</v>
+        <v>-19.6</v>
       </c>
       <c r="C57" t="n">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="D57" t="n">
-        <v>-14.7</v>
+        <v>-13.7</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7108</v>
+        <v>0.71146</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SC 105</t>
+          <t>SC 119</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-19.6</v>
+        <v>-19.5</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="D58" t="n">
-        <v>-13.7</v>
+        <v>-13</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.9</v>
+        <v>-6.8</v>
       </c>
       <c r="F58" t="n">
-        <v>0.71146</v>
+        <v>0.70951</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SC 119</t>
+          <t>SC 120</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-19.5</v>
+        <v>-19.7</v>
       </c>
       <c r="C59" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="D59" t="n">
-        <v>-13</v>
+        <v>-13.6</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.8</v>
+        <v>-5.7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.70951</v>
+        <v>0.71096</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SC 120</t>
+          <t>SC 132</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-19.7</v>
+        <v>-18.8</v>
       </c>
       <c r="C60" t="n">
-        <v>11.4</v>
+        <v>15.3</v>
       </c>
       <c r="D60" t="n">
-        <v>-13.6</v>
+        <v>-13.7</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.7</v>
+        <v>-8.1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.71096</v>
+        <v>0.70948</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SC 132</t>
+          <t>SC 193</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-18.8</v>
+        <v>-19.9</v>
       </c>
       <c r="C61" t="n">
-        <v>15.3</v>
+        <v>10.5</v>
       </c>
       <c r="D61" t="n">
-        <v>-13.7</v>
+        <v>-14.7</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.1</v>
+        <v>-6.4</v>
       </c>
       <c r="F61" t="n">
-        <v>0.70948</v>
+        <v>0.71183</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SC 193</t>
+          <t>SC 232</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-19.9</v>
+        <v>-19.5</v>
       </c>
       <c r="C62" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="D62" t="n">
-        <v>-14.7</v>
+        <v>-14.1</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.4</v>
+        <v>-10.7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.71183</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SC 232</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>-19.5</v>
-      </c>
-      <c r="C63" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-14.1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="F63" t="n">
         <v>0.7115899999999999</v>
       </c>
     </row>
